--- a/biology/Zoologie/Cethegus_broomi/Cethegus_broomi.xlsx
+++ b/biology/Zoologie/Cethegus_broomi/Cethegus_broomi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cethegus broomi est une espèce d'araignées mygalomorphes de la famille des Euagridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cethegus broomi est une espèce d'araignées mygalomorphes de la famille des Euagridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre vers Hillgrove[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre vers Hillgrove.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Raven en 1984 mesure 6,45 mm de long sur 5,61 mm et l'abdomen 7,74 mm de long sur 4,97 mm et la carapace de la femelle paratype mesure 8,56 mm de long sur 6,75 mm et l'abdomen 9,70 mm de long sur 7,05 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Raven en 1984 mesure 6,45 mm de long sur 5,61 mm et l'abdomen 7,74 mm de long sur 4,97 mm et la carapace de la femelle paratype mesure 8,56 mm de long sur 6,75 mm et l'abdomen 9,70 mm de long sur 7,05 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Stenygrocercus broomi par Hogg en 1901. Elle est placée dans le genre Cethegus par Main en 1960[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Stenygrocercus broomi par Hogg en 1901. Elle est placée dans le genre Cethegus par Main en 1960.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hogg, 1901 : On Australian and New Zealand spiders of the suborder Mygalomorphae. Proceedings of the Zoological Society of London, vol. 1901, p. 218-279 (texte intégral).</t>
         </is>
